--- a/Base/Teams/Bears/Target Depth Data.xlsx
+++ b/Base/Teams/Bears/Target Depth Data.xlsx
@@ -427,19 +427,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>229</v>
+        <v>267</v>
       </c>
       <c r="C2">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="D2">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="C2">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="D2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F2">
         <v>5</v>

--- a/Base/Teams/Bears/Target Depth Data.xlsx
+++ b/Base/Teams/Bears/Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="C3">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="D3">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>385</v>
+        <v>414</v>
       </c>
       <c r="C3">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="D3">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E3">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F3">
         <v>7</v>

--- a/Base/Teams/Bears/Target Depth Data.xlsx
+++ b/Base/Teams/Bears/Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="C2">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="D2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F2">
         <v>8</v>
@@ -506,13 +506,13 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="C2">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="D2">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E2">
         <v>44</v>
@@ -521,7 +521,7 @@
         <v>5</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/Base/Teams/Bears/Target Depth Data.xlsx
+++ b/Base/Teams/Bears/Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="C3">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="D3">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>7</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="C3">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="D3">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E3">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F3">
         <v>7</v>

--- a/Base/Teams/Bears/Target Depth Data.xlsx
+++ b/Base/Teams/Bears/Target Depth Data.xlsx
@@ -427,22 +427,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="C2">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="D2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2">
         <v>8</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -506,10 +506,10 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="C2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D2">
         <v>97</v>
@@ -518,7 +518,7 @@
         <v>44</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G2">
         <v>5</v>

--- a/Base/Teams/Bears/Target Depth Data.xlsx
+++ b/Base/Teams/Bears/Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="C3">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="D3">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="C3">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="D3">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E3">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F3">
         <v>7</v>
